--- a/2022/SAMSUNG/MAY/28.05.2022/SAMSUNG Bank Statement May-2022.xlsx
+++ b/2022/SAMSUNG/MAY/28.05.2022/SAMSUNG Bank Statement May-2022.xlsx
@@ -2138,7 +2138,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="443">
+  <cellXfs count="442">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3237,8 +3237,8 @@
     <xf numFmtId="1" fontId="33" fillId="49" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3410,9 +3410,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -9516,11 +9513,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9535,6 +9527,11 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -17280,7 +17277,7 @@
       </c>
       <c r="F71" s="128"/>
       <c r="G71" s="56"/>
-      <c r="H71" s="442" t="s">
+      <c r="H71" s="384" t="s">
         <v>89</v>
       </c>
       <c r="I71" s="54"/>
@@ -33728,8 +33725,8 @@
   </sheetPr>
   <dimension ref="A1:R219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34220,10 +34217,10 @@
       <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="21.75">
-      <c r="A15" s="384" t="s">
+      <c r="A15" s="260" t="s">
         <v>245</v>
       </c>
-      <c r="B15" s="381">
+      <c r="B15" s="237">
         <v>400000</v>
       </c>
       <c r="C15" s="39"/>
@@ -34272,7 +34269,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="238">
-        <f>B5+B13+B15-B16</f>
+        <f>B5+B13+B15</f>
         <v>13630454</v>
       </c>
       <c r="C17" s="39"/>
